--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H2">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I2">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J2">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N2">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O2">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P2">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q2">
-        <v>45.30064666418549</v>
+        <v>54.05002064187425</v>
       </c>
       <c r="R2">
-        <v>181.202586656742</v>
+        <v>216.200082567497</v>
       </c>
       <c r="S2">
-        <v>0.04966095905286903</v>
+        <v>0.1282940357241699</v>
       </c>
       <c r="T2">
-        <v>0.03269169432396414</v>
+        <v>0.09820947910335345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H3">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I3">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J3">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N3">
         <v>16.668628</v>
       </c>
       <c r="O3">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P3">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q3">
-        <v>25.010059504156</v>
+        <v>23.44972312759933</v>
       </c>
       <c r="R3">
-        <v>150.060357024936</v>
+        <v>140.698338765596</v>
       </c>
       <c r="S3">
-        <v>0.02741734682404981</v>
+        <v>0.05566065620192145</v>
       </c>
       <c r="T3">
-        <v>0.02707316386877641</v>
+        <v>0.0639126053828515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H4">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I4">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J4">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N4">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O4">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P4">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q4">
-        <v>13.677679471366</v>
+        <v>15.27138882846617</v>
       </c>
       <c r="R4">
-        <v>82.06607682819599</v>
+        <v>91.628332970797</v>
       </c>
       <c r="S4">
-        <v>0.01499419390634844</v>
+        <v>0.03624842471196119</v>
       </c>
       <c r="T4">
-        <v>0.01480596468038619</v>
+        <v>0.04162242097831398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H5">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I5">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J5">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N5">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O5">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P5">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q5">
-        <v>101.8766128725645</v>
+        <v>50.63682594417974</v>
       </c>
       <c r="R5">
-        <v>407.506451490258</v>
+        <v>202.547303776719</v>
       </c>
       <c r="S5">
-        <v>0.1116825183051806</v>
+        <v>0.1201924195308854</v>
       </c>
       <c r="T5">
-        <v>0.07352034313063797</v>
+        <v>0.09200766697898938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H6">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I6">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J6">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N6">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O6">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P6">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q6">
-        <v>43.642486525597</v>
+        <v>2.593520728009833</v>
       </c>
       <c r="R6">
-        <v>261.854919153582</v>
+        <v>15.561124368059</v>
       </c>
       <c r="S6">
-        <v>0.04784319642011957</v>
+        <v>0.006156024308210711</v>
       </c>
       <c r="T6">
-        <v>0.04724259808946131</v>
+        <v>0.007068683324727499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H7">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I7">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J7">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N7">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O7">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P7">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q7">
-        <v>16.548077345424</v>
+        <v>14.76492596755917</v>
       </c>
       <c r="R7">
-        <v>99.28846407254397</v>
+        <v>88.58955580535499</v>
       </c>
       <c r="S7">
-        <v>0.018140875505526</v>
+        <v>0.03504627596902752</v>
       </c>
       <c r="T7">
-        <v>0.01791314449337488</v>
+        <v>0.04024204813578255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J8">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N8">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O8">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P8">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q8">
-        <v>21.010559404023</v>
+        <v>26.736594158463</v>
       </c>
       <c r="R8">
-        <v>126.063356424138</v>
+        <v>160.419564950778</v>
       </c>
       <c r="S8">
-        <v>0.02303288379028747</v>
+        <v>0.06346242842044433</v>
       </c>
       <c r="T8">
-        <v>0.02274374107847496</v>
+        <v>0.07287102634146271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J9">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N9">
         <v>16.668628</v>
       </c>
       <c r="O9">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P9">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q9">
         <v>11.599731562456</v>
@@ -1013,10 +1013,10 @@
         <v>104.397584062104</v>
       </c>
       <c r="S9">
-        <v>0.01271623777068122</v>
+        <v>0.02753331743062414</v>
       </c>
       <c r="T9">
-        <v>0.01883490721235612</v>
+        <v>0.04742288822756063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J10">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N10">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O10">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P10">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q10">
-        <v>6.343743813916</v>
+        <v>7.554204799442002</v>
       </c>
       <c r="R10">
-        <v>57.093694325244</v>
+        <v>67.98784319497801</v>
       </c>
       <c r="S10">
-        <v>0.006954346681188552</v>
+        <v>0.01793078723926461</v>
       </c>
       <c r="T10">
-        <v>0.01030056820459454</v>
+        <v>0.03088366380921576</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J11">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N11">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O11">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P11">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q11">
-        <v>47.250641751477</v>
+        <v>25.048209948201</v>
       </c>
       <c r="R11">
-        <v>283.503850508862</v>
+        <v>150.289259689206</v>
       </c>
       <c r="S11">
-        <v>0.05179864655435539</v>
+        <v>0.05945485133508679</v>
       </c>
       <c r="T11">
-        <v>0.05114839358259073</v>
+        <v>0.06826930745642786</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J12">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N12">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O12">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P12">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q12">
-        <v>20.241500358322</v>
+        <v>1.282921085374</v>
       </c>
       <c r="R12">
-        <v>182.173503224898</v>
+        <v>11.546289768366</v>
       </c>
       <c r="S12">
-        <v>0.02218980068684051</v>
+        <v>0.003045163010182994</v>
       </c>
       <c r="T12">
-        <v>0.03286686239549039</v>
+        <v>0.005244933721861958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J13">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N13">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O13">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P13">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q13">
-        <v>7.675041918624</v>
+        <v>7.303675904030001</v>
       </c>
       <c r="R13">
-        <v>69.07537726761599</v>
+        <v>65.73308313627</v>
       </c>
       <c r="S13">
-        <v>0.008413785906309706</v>
+        <v>0.01733612765030928</v>
       </c>
       <c r="T13">
-        <v>0.0124622454933448</v>
+        <v>0.02985943288275611</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H14">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I14">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J14">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N14">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O14">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P14">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q14">
-        <v>0.1443538796035</v>
+        <v>1.2932831352175</v>
       </c>
       <c r="R14">
-        <v>0.8661232776209999</v>
+        <v>7.759698811304999</v>
       </c>
       <c r="S14">
-        <v>0.0001582483393063743</v>
+        <v>0.003069758545522488</v>
       </c>
       <c r="T14">
-        <v>0.0001562617728658243</v>
+        <v>0.003524864418214352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H15">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I15">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J15">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N15">
         <v>16.668628</v>
       </c>
       <c r="O15">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P15">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q15">
-        <v>0.07969641460755557</v>
+        <v>0.5610937995266665</v>
       </c>
       <c r="R15">
-        <v>0.717267731468</v>
+        <v>5.049844195739999</v>
       </c>
       <c r="S15">
-        <v>8.7367414682301E-05</v>
+        <v>0.001331821655315249</v>
       </c>
       <c r="T15">
-        <v>0.0001294059751476655</v>
+        <v>0.002293905544008692</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H16">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I16">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J16">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N16">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O16">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P16">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q16">
-        <v>0.04358494284422221</v>
+        <v>0.3654065139783333</v>
       </c>
       <c r="R16">
-        <v>0.392264485598</v>
+        <v>3.288658625805</v>
       </c>
       <c r="S16">
-        <v>4.778011400044268E-05</v>
+        <v>0.0008673350315404258</v>
       </c>
       <c r="T16">
-        <v>7.077046135996599E-05</v>
+        <v>0.001493882179662104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H17">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I17">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J17">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N17">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O17">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P17">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q17">
-        <v>0.3246374034798333</v>
+        <v>1.2116138391225</v>
       </c>
       <c r="R17">
-        <v>1.947824420879</v>
+        <v>7.269683034734999</v>
       </c>
       <c r="S17">
-        <v>0.0003558846504058309</v>
+        <v>0.002875906934249238</v>
       </c>
       <c r="T17">
-        <v>0.000351417061638063</v>
+        <v>0.003302273410857355</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H18">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I18">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J18">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N18">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O18">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P18">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q18">
-        <v>0.1390700290045556</v>
+        <v>0.06205652798166666</v>
       </c>
       <c r="R18">
-        <v>1.251630261041</v>
+        <v>0.5585087518349999</v>
       </c>
       <c r="S18">
-        <v>0.000152455903490152</v>
+        <v>0.000147298415860916</v>
       </c>
       <c r="T18">
-        <v>0.0002258130783645378</v>
+        <v>0.0002537041287912329</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H19">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I19">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J19">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N19">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O19">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P19">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q19">
-        <v>0.05273167914133332</v>
+        <v>0.3532881120083333</v>
       </c>
       <c r="R19">
-        <v>0.4745851122719999</v>
+        <v>3.179593008075</v>
       </c>
       <c r="S19">
-        <v>5.780724893486167E-05</v>
+        <v>0.0008385705893293799</v>
       </c>
       <c r="T19">
-        <v>8.562235069243787E-05</v>
+        <v>0.001444338824367571</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H20">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I20">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J20">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N20">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O20">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P20">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q20">
-        <v>33.66105463289625</v>
+        <v>55.77125197975975</v>
       </c>
       <c r="R20">
-        <v>134.644218531585</v>
+        <v>223.085007919039</v>
       </c>
       <c r="S20">
-        <v>0.0369010241331111</v>
+        <v>0.1323795793026891</v>
       </c>
       <c r="T20">
-        <v>0.02429185871977633</v>
+        <v>0.1013369752837923</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H21">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I21">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J21">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N21">
         <v>16.668628</v>
       </c>
       <c r="O21">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P21">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q21">
-        <v>18.58395059086333</v>
+        <v>24.19648321820866</v>
       </c>
       <c r="R21">
-        <v>111.50370354518</v>
+        <v>145.178899309252</v>
       </c>
       <c r="S21">
-        <v>0.02037270717512833</v>
+        <v>0.05743317848043831</v>
       </c>
       <c r="T21">
-        <v>0.02011695892175231</v>
+        <v>0.06594791227014705</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H22">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I22">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J22">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N22">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O22">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P22">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q22">
-        <v>10.16332326003833</v>
+        <v>15.75770858768984</v>
       </c>
       <c r="R22">
-        <v>60.97993956022999</v>
+        <v>94.54625152613902</v>
       </c>
       <c r="S22">
-        <v>0.01114157120094413</v>
+        <v>0.03740276145082404</v>
       </c>
       <c r="T22">
-        <v>0.01100170577461607</v>
+        <v>0.04294789346649715</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H23">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I23">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J23">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N23">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O23">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P23">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q23">
-        <v>75.70033728522874</v>
+        <v>52.24936356453825</v>
       </c>
       <c r="R23">
-        <v>302.801349140915</v>
+        <v>208.997454258153</v>
       </c>
       <c r="S23">
-        <v>0.08298670387816443</v>
+        <v>0.124019965878066</v>
       </c>
       <c r="T23">
-        <v>0.05462995495616684</v>
+        <v>0.09493766548498954</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H24">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I24">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J24">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N24">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O24">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P24">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q24">
-        <v>32.42894376638083</v>
+        <v>2.676111800122167</v>
       </c>
       <c r="R24">
-        <v>194.573662598285</v>
+        <v>16.056670800733</v>
       </c>
       <c r="S24">
-        <v>0.03555031919187255</v>
+        <v>0.006352063862502169</v>
       </c>
       <c r="T24">
-        <v>0.03510403917802239</v>
+        <v>0.007293786647753498</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H25">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I25">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J25">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N25">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O25">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P25">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q25">
-        <v>12.29619832412</v>
+        <v>15.23511733798083</v>
       </c>
       <c r="R25">
-        <v>73.77718994471998</v>
+        <v>91.410704027885</v>
       </c>
       <c r="S25">
-        <v>0.01347974138220968</v>
+        <v>0.03616233009366442</v>
       </c>
       <c r="T25">
-        <v>0.01331052379689684</v>
+        <v>0.04152356243548928</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H26">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I26">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J26">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N26">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O26">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P26">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q26">
-        <v>63.81553208987599</v>
+        <v>0.7720211531013335</v>
       </c>
       <c r="R26">
-        <v>382.8931925392559</v>
+        <v>4.632126918608001</v>
       </c>
       <c r="S26">
-        <v>0.06995795334987767</v>
+        <v>0.001832482360220663</v>
       </c>
       <c r="T26">
-        <v>0.06907973798923896</v>
+        <v>0.002104156327854728</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H27">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I27">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J27">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N27">
         <v>16.668628</v>
       </c>
       <c r="O27">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P27">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q27">
-        <v>35.23195301578311</v>
+        <v>0.3349431151715555</v>
       </c>
       <c r="R27">
-        <v>317.087577142048</v>
+        <v>3.014488036544</v>
       </c>
       <c r="S27">
-        <v>0.03862312582510391</v>
+        <v>0.0007950265970868686</v>
       </c>
       <c r="T27">
-        <v>0.05720740711881301</v>
+        <v>0.001369339439266175</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H28">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I28">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J28">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N28">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O28">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P28">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q28">
-        <v>19.26790139863644</v>
+        <v>0.2181282277564445</v>
       </c>
       <c r="R28">
-        <v>173.411112587728</v>
+        <v>1.963154049808</v>
       </c>
       <c r="S28">
-        <v>0.02112249013762741</v>
+        <v>0.0005177528206632106</v>
       </c>
       <c r="T28">
-        <v>0.0312859942547934</v>
+        <v>0.0008917680989834537</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H29">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I29">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J29">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N29">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O29">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P29">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q29">
-        <v>143.5147340427906</v>
+        <v>0.723268932936</v>
       </c>
       <c r="R29">
-        <v>861.0884042567438</v>
+        <v>4.339613597616</v>
       </c>
       <c r="S29">
-        <v>0.1573284236672289</v>
+        <v>0.001716763272582087</v>
       </c>
       <c r="T29">
-        <v>0.1553534053638971</v>
+        <v>0.00197128135137803</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H30">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I30">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J30">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N30">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O30">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P30">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q30">
-        <v>61.47966319337511</v>
+        <v>0.03704444215288889</v>
       </c>
       <c r="R30">
-        <v>553.3169687403761</v>
+        <v>0.333399979376</v>
       </c>
       <c r="S30">
-        <v>0.06739725061903319</v>
+        <v>8.792930934170075E-05</v>
       </c>
       <c r="T30">
-        <v>0.09982677146098988</v>
+        <v>0.0001514478529274543</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H31">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I31">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J31">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N31">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O31">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P31">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q31">
-        <v>23.31146327095466</v>
+        <v>0.2108941871911111</v>
       </c>
       <c r="R31">
-        <v>209.8031694385919</v>
+        <v>1.89804768472</v>
       </c>
       <c r="S31">
-        <v>0.02555525601087254</v>
+        <v>0.0005005819806210154</v>
       </c>
       <c r="T31">
-        <v>0.03785167314679781</v>
+        <v>0.0008621933544890382</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H32">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I32">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J32">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N32">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O32">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P32">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q32">
-        <v>4.010314549325</v>
+        <v>3.018147302889834</v>
       </c>
       <c r="R32">
-        <v>24.06188729595</v>
+        <v>18.108883817339</v>
       </c>
       <c r="S32">
-        <v>0.004396318403564991</v>
+        <v>0.007163925069767155</v>
       </c>
       <c r="T32">
-        <v>0.004341129334025463</v>
+        <v>0.00822601002610061</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H33">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I33">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J33">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N33">
         <v>16.668628</v>
       </c>
       <c r="O33">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P33">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q33">
-        <v>2.214056815844445</v>
+        <v>1.309430001516889</v>
       </c>
       <c r="R33">
-        <v>19.9265113426</v>
+        <v>11.784870013652</v>
       </c>
       <c r="S33">
-        <v>0.002427165900907642</v>
+        <v>0.003108085018246205</v>
       </c>
       <c r="T33">
-        <v>0.003595044804682129</v>
+        <v>0.005353309451119939</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H34">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I34">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J34">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N34">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O34">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P34">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q34">
-        <v>1.210839160677778</v>
+        <v>0.8527526993821112</v>
       </c>
       <c r="R34">
-        <v>10.8975524461</v>
+        <v>7.674774294439001</v>
       </c>
       <c r="S34">
-        <v>0.001327385774948972</v>
+        <v>0.002024108112803436</v>
       </c>
       <c r="T34">
-        <v>0.00196608370785646</v>
+        <v>0.003486287224045566</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H35">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I35">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J35">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N35">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O35">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P35">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q35">
-        <v>9.018795379841666</v>
+        <v>2.8275548803755</v>
       </c>
       <c r="R35">
-        <v>54.11277227905001</v>
+        <v>16.965329282253</v>
       </c>
       <c r="S35">
-        <v>0.009886879350413668</v>
+        <v>0.006711531698359886</v>
       </c>
       <c r="T35">
-        <v>0.009762764665827482</v>
+        <v>0.00770654724938307</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H36">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I36">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J36">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N36">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O36">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P36">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q36">
-        <v>3.863523184994445</v>
+        <v>0.1448219167592222</v>
       </c>
       <c r="R36">
-        <v>34.77170866495001</v>
+        <v>1.303397250833</v>
       </c>
       <c r="S36">
-        <v>0.004235397964892805</v>
+        <v>0.0003437517311132359</v>
       </c>
       <c r="T36">
-        <v>0.006273343508886308</v>
+        <v>0.0005920717677297315</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H37">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I37">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J37">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N37">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O37">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P37">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q37">
-        <v>1.464945872266667</v>
+        <v>0.8244718680427778</v>
       </c>
       <c r="R37">
-        <v>13.1845128504</v>
+        <v>7.420246812385</v>
       </c>
       <c r="S37">
-        <v>0.001605950959521749</v>
+        <v>0.00195698025710477</v>
       </c>
       <c r="T37">
-        <v>0.002378686043440191</v>
+        <v>0.003370667418848648</v>
       </c>
     </row>
   </sheetData>
